--- a/tools/bsi/bs-it-gs-2023-ind-industrielle-it.xlsx
+++ b/tools/bsi/bs-it-gs-2023-ind-industrielle-it.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA531DD-F747-4D4E-9DA4-9C1129D4D533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C55B41-E54D-C14D-9254-8A61D929AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1920,9 +1920,6 @@
     <t>framework_urn</t>
   </si>
   <si>
-    <t>urn:intuitem:risk:framework:bs-it-gs-2023-con-konzeption-und-vorgehensweisen</t>
-  </si>
-  <si>
     <t>framework_ref_id</t>
   </si>
   <si>
@@ -1945,15 +1942,25 @@
   </si>
   <si>
     <t>IT-Grundschutz-Kompendium – Werkzeug für Informationssicherheit - IND: Industrielle IT</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:bs-it-gs-2023-ind-industrielle-it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2007,21 +2014,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2330,7 +2340,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,8 +2354,8 @@
       <c r="A1" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>638</v>
+      <c r="B1" s="6" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,7 +2379,7 @@
         <v>621</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2377,7 +2387,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2416,29 +2426,29 @@
       <c r="A10" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>632</v>
+      <c r="B10" s="6" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>624</v>
@@ -2446,18 +2456,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>637</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
